--- a/table/Table_B3.xlsx
+++ b/table/Table_B3.xlsx
@@ -15,73 +15,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
-    <t>Panel A: Total Visits/Admissions</t>
-  </si>
-  <si>
-    <t>covid19</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Panel B: Infectious Diseases</t>
-  </si>
-  <si>
-    <t>covid19</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Panel C: Non-infectious diseases</t>
-  </si>
-  <si>
-    <t>covid19</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
+    <t>\multicolumn{9}{@{}l@{}}{\textbf{Panel A:} All diseases}</t>
+  </si>
+  <si>
+    <t>$Y_{2020} \times Post$</t>
+  </si>
+  <si>
+    <t>Cluster at county level</t>
+  </si>
+  <si>
+    <t>Cluster at year-week level</t>
+  </si>
+  <si>
+    <t>\multicolumn{9}{@{}l@{}}{\textbf{Panel B:} ILI diseases}</t>
+  </si>
+  <si>
+    <t>$Y_{2020} \times Post$</t>
+  </si>
+  <si>
+    <t>Cluster at county level</t>
+  </si>
+  <si>
+    <t>Cluster at year-week level</t>
+  </si>
+  <si>
+    <t>\multicolumn{9}{@{}l@{}}{\textbf{Panel C:} Non-ILI diseases}</t>
+  </si>
+  <si>
+    <t>$Y_{2020} \times Post$</t>
+  </si>
+  <si>
+    <t>Cluster at county level</t>
+  </si>
+  <si>
+    <t>Cluster at year-week level</t>
   </si>
   <si>
     <t>Observations</t>
   </si>
   <si>
-    <t>Robust standard errors in parentheses</t>
-  </si>
-  <si>
-    <t>*** p&lt;0.01, ** p&lt;0.05, * p&lt;0.1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.14***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.42***</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.10***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t/>
+    <t/>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.86,0.89]</t>
+  </si>
+  <si>
+    <t>{0.84,0.91}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>[0.62,0.65]</t>
+  </si>
+  <si>
+    <t>{0.58,0.69}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[0.89,0.91]</t>
+  </si>
+  <si>
+    <t>{0.86,0.94}</t>
   </si>
   <si>
     <t>8,008</t>
@@ -90,37 +96,37 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.13***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.43***</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.09***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t/>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>[0.87,0.89]</t>
+  </si>
+  <si>
+    <t>{0.84,0.92}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>[0.61,0.65]</t>
+  </si>
+  <si>
+    <t>{0.58,0.68}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[0.90,0.92]</t>
+  </si>
+  <si>
+    <t>{0.87,0.95}</t>
   </si>
   <si>
     <t>8,008</t>
@@ -129,37 +135,37 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.14***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.10***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t/>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.86,0.88]</t>
+  </si>
+  <si>
+    <t>{0.87,0.87}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>[0.61,0.64]</t>
+  </si>
+  <si>
+    <t>{0.62,0.62}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[0.89,0.91]</t>
+  </si>
+  <si>
+    <t>{0.87,0.93}</t>
   </si>
   <si>
     <t>8,008</t>
@@ -168,37 +174,37 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.14***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.10***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t/>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.86,0.88]</t>
+  </si>
+  <si>
+    <t>{0.84,0.90}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>[0.60,0.64]</t>
+  </si>
+  <si>
+    <t>{0.57,0.67}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[0.89,0.91]</t>
+  </si>
+  <si>
+    <t>{0.87,0.93}</t>
   </si>
   <si>
     <t>8,008</t>
@@ -207,37 +213,37 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.05***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.43***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.02***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t/>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[0.90,1.00]</t>
+  </si>
+  <si>
+    <t>{0.91,0.99}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.54,0.66]</t>
+  </si>
+  <si>
+    <t>{0.55,0.66}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[0.92,1.03]</t>
+  </si>
+  <si>
+    <t>{0.93,1.02}</t>
   </si>
   <si>
     <t>8,008</t>
@@ -246,37 +252,37 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.05***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.46***</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t/>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[0.91,1.01]</t>
+  </si>
+  <si>
+    <t>{0.92,1.01}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.54,0.66]</t>
+  </si>
+  <si>
+    <t>{0.54,0.65}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[0.94,1.05]</t>
+  </si>
+  <si>
+    <t>{0.94,1.04}</t>
   </si>
   <si>
     <t>8,008</t>
@@ -285,37 +291,37 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.42***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t/>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[0.91,1.00]</t>
+  </si>
+  <si>
+    <t>{0.91,0.99}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.54,0.66]</t>
+  </si>
+  <si>
+    <t>{0.55,0.66}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[0.93,1.03]</t>
+  </si>
+  <si>
+    <t>{0.94,1.02}</t>
   </si>
   <si>
     <t>8,008</t>
@@ -324,46 +330,40 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.42***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t/>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[0.91,1.01]</t>
+  </si>
+  <si>
+    <t>{0.92,1.00}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.55,0.67]</t>
+  </si>
+  <si>
+    <t>{0.55,0.66}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[0.93,1.04]</t>
+  </si>
+  <si>
+    <t>{0.94,1.02}</t>
   </si>
   <si>
     <t>8,008</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
